--- a/HeavyWinFormsClient/HeavyWinFormsClient/bin/Debug/net6.0-windows/stats_generales.xlsx
+++ b/HeavyWinFormsClient/HeavyWinFormsClient/bin/Debug/net6.0-windows/stats_generales.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">Stations</t>
   </si>
@@ -26,13 +26,22 @@
     <t xml:space="preserve">Usage</t>
   </si>
   <si>
-    <t xml:space="preserve">12- PLACE DES COTONNIERS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rouen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11- CLEMENCEAU JOFFRE</t>
+    <t xml:space="preserve">00019 - COMMANDERIE - CHALNOT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEPART</t>
+  </si>
+  <si>
+    <t xml:space="preserve">097-SAINT DONATIEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nantes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARRIVEE</t>
   </si>
 </sst>
 </file>
@@ -171,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyFill="1" applyAlignment="0">
       <alignment/>
@@ -189,10 +198,6 @@
       <alignment/>
       <protection locked="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
@@ -236,24 +241,24 @@
         <v>5</v>
       </c>
       <c r="C2" s="6">
-        <v>44663.02613425926</v>
-      </c>
-      <c r="D2" s="8">
-        <v>44663.02613425926</v>
+        <v>44679.8621875</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="10">
-        <v>44663.02613425926</v>
-      </c>
-      <c r="D3" s="12">
-        <v>44663.02613425926</v>
+        <v>8</v>
+      </c>
+      <c r="C3" s="8">
+        <v>44679.8621875</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/HeavyWinFormsClient/HeavyWinFormsClient/bin/Debug/net6.0-windows/stats_generales.xlsx
+++ b/HeavyWinFormsClient/HeavyWinFormsClient/bin/Debug/net6.0-windows/stats_generales.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="15">
   <si>
     <t xml:space="preserve">Stations</t>
   </si>
@@ -26,22 +26,37 @@
     <t xml:space="preserve">Usage</t>
   </si>
   <si>
-    <t xml:space="preserve">00019 - COMMANDERIE - CHALNOT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nancy</t>
+    <t xml:space="preserve">10111 - CHARLES HERNU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lyon</t>
   </si>
   <si>
     <t xml:space="preserve">DEPART</t>
   </si>
   <si>
-    <t xml:space="preserve">097-SAINT DONATIEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nantes</t>
+    <t xml:space="preserve">3066 - KIMMERLING / FAURE</t>
   </si>
   <si>
     <t xml:space="preserve">ARRIVEE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9207- TEISSEIRE - ROUBAUD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marseille</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9087-MAZARGUES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00280 - CHARBONNIERE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toulouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00154 - GALLOIS</t>
   </si>
 </sst>
 </file>
@@ -180,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyFill="1" applyAlignment="0">
       <alignment/>
@@ -198,6 +213,22 @@
       <alignment/>
       <protection locked="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
@@ -241,7 +272,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="6">
-        <v>44679.8621875</v>
+        <v>44680.34704861111</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -252,13 +283,125 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="8">
+        <v>44680.34704861111</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="8">
-        <v>44679.8621875</v>
-      </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="10">
+        <v>44680.35230324074</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="12">
+        <v>44680.35230324074</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
         <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="14">
+        <v>44680.35905092592</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="16">
+        <v>44680.35905092592</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="18">
+        <v>44680.39240740741</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="20">
+        <v>44680.39240740741</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="22">
+        <v>44680.39436342593</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="24">
+        <v>44680.39436342593</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
